--- a/homeworks/CF_HW_3_2021_Ans.xlsx
+++ b/homeworks/CF_HW_3_2021_Ans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF51B505-13E3-8B49-8575-55C468343E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9493C17B-C579-2343-9709-A34640DFF5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="1120" windowWidth="28000" windowHeight="24340" xr2:uid="{6A4A89BC-F369-8143-8C40-9D548CEE7B1D}"/>
+    <workbookView xWindow="30100" yWindow="460" windowWidth="28000" windowHeight="24340" xr2:uid="{6A4A89BC-F369-8143-8C40-9D548CEE7B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -199,9 +199,6 @@
     <t>Now bring the real Y2 CF to PV using real annual rate of 1.94%</t>
   </si>
   <si>
-    <t>NPV = -1000 +Real</t>
-  </si>
-  <si>
     <t>You can work with Real or Nominal and you'll get the same answer.</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>It might be necessary to consider matching convexity in addition to duration.</t>
+  </si>
+  <si>
+    <t>NPV = -10,000 +Real</t>
   </si>
 </sst>
 </file>
@@ -904,15 +904,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,6 +983,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0797D0A-D3D4-B749-8CFB-509443607DBA}">
   <dimension ref="B1:I278"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3855,7 +3855,7 @@
         <v>884.35374149659947</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="I99" s="17"/>
     </row>
@@ -3866,14 +3866,14 @@
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="45"/>
       <c r="C101" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I101" s="17"/>
     </row>
     <row r="102" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="53"/>
       <c r="C102" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="104" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -3900,14 +3900,14 @@
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="25"/>
       <c r="C105" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="46"/>
       <c r="C106" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
@@ -3919,7 +3919,7 @@
     <row r="108" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -3931,41 +3931,41 @@
     </row>
     <row r="110" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I110" s="17"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I111" s="17"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I112" s="17"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I113" s="17"/>
     </row>
     <row r="114" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="25"/>
       <c r="C114" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I114" s="17"/>
     </row>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="I116" s="17"/>
     </row>
@@ -3991,7 +3991,7 @@
     <row r="118" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45"/>
       <c r="C118" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I118" s="17"/>
     </row>
@@ -4000,14 +4000,14 @@
         <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I119" s="17"/>
     </row>
     <row r="120" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="53"/>
       <c r="C120" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
@@ -4019,7 +4019,7 @@
     <row r="122" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -4031,22 +4031,22 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2">
         <v>-918</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I124" s="17"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2">
         <v>50</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2">
         <v>5</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2">
         <v>1000</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4092,22 +4092,22 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2">
         <v>-932.26</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I131" s="17"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2">
         <v>50</v>
@@ -4116,19 +4116,19 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C133" s="55">
         <v>4</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I133" s="17"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2">
         <v>1000</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4149,88 +4149,88 @@
       <c r="I136" s="17"/>
     </row>
     <row r="137" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="56" t="s">
+      <c r="B137" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="88"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="88"/>
+      <c r="H137" s="88"/>
+      <c r="I137" s="89"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B138" s="87"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="F138" s="88"/>
+      <c r="G138" s="88"/>
+      <c r="H138" s="88"/>
+      <c r="I138" s="89"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="87"/>
+      <c r="C139" s="88"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="88"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="89"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B140" s="87"/>
+      <c r="C140" s="88"/>
+      <c r="D140" s="88"/>
+      <c r="E140" s="88"/>
+      <c r="F140" s="88"/>
+      <c r="G140" s="88"/>
+      <c r="H140" s="88"/>
+      <c r="I140" s="89"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B141" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57"/>
-      <c r="I137" s="58"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B138" s="56"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
-      <c r="I138" s="58"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="56"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="57"/>
-      <c r="I139" s="58"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B140" s="56"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="57"/>
-      <c r="H140" s="57"/>
-      <c r="I140" s="58"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B141" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="57"/>
-      <c r="I141" s="58"/>
+      <c r="C141" s="88"/>
+      <c r="D141" s="88"/>
+      <c r="E141" s="88"/>
+      <c r="F141" s="88"/>
+      <c r="G141" s="88"/>
+      <c r="H141" s="88"/>
+      <c r="I141" s="89"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B142" s="56"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="57"/>
-      <c r="H142" s="57"/>
-      <c r="I142" s="58"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="88"/>
+      <c r="D142" s="88"/>
+      <c r="E142" s="88"/>
+      <c r="F142" s="88"/>
+      <c r="G142" s="88"/>
+      <c r="H142" s="88"/>
+      <c r="I142" s="89"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" s="56"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="58"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="88"/>
+      <c r="D143" s="88"/>
+      <c r="E143" s="88"/>
+      <c r="F143" s="88"/>
+      <c r="G143" s="88"/>
+      <c r="H143" s="88"/>
+      <c r="I143" s="89"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" s="56"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="58"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="88"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="88"/>
+      <c r="F144" s="88"/>
+      <c r="G144" s="88"/>
+      <c r="H144" s="88"/>
+      <c r="I144" s="89"/>
     </row>
     <row r="145" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="45"/>
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
@@ -4252,22 +4252,22 @@
     </row>
     <row r="147" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="60"/>
+      <c r="B148" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
       <c r="G148" s="13"/>
       <c r="H148" s="13"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C149" s="62">
+      <c r="B149" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="59">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D149" s="5"/>
@@ -4276,10 +4276,10 @@
       <c r="I149" s="17"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C150" s="62">
+      <c r="B150" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="59">
         <v>0.02</v>
       </c>
       <c r="D150" s="5"/>
@@ -4288,10 +4288,10 @@
       <c r="I150" s="17"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C151" s="62">
+      <c r="B151" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="59">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D151" s="5"/>
@@ -4300,45 +4300,45 @@
       <c r="I151" s="17"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B152" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C152" s="62">
+      <c r="B152" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="59">
         <f>C149</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="I152" s="17"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C153" s="62">
+      <c r="B153" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" s="59">
         <f>(1+C150)^2/(1+C149)-1</f>
         <v>2.5024630541871984E-2</v>
       </c>
-      <c r="D153" s="63" t="s">
-        <v>93</v>
+      <c r="D153" s="60" t="s">
+        <v>92</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="I153" s="17"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C154" s="62">
+      <c r="B154" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154" s="59">
         <f>(1+C151)^3/(1+C150)^2-1</f>
         <v>6.566500865051883E-2</v>
       </c>
-      <c r="D154" s="63" t="s">
-        <v>95</v>
+      <c r="D154" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -4346,75 +4346,75 @@
     </row>
     <row r="155" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B155" s="10"/>
-      <c r="C155" s="64"/>
+      <c r="C155" s="61"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="I155" s="17"/>
     </row>
     <row r="156" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" s="64"/>
+      <c r="B156" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" s="61"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="I156" s="17"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B157" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C157" s="66">
+      <c r="B157" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157" s="63">
         <f>30/(1+C149)+1030/(1+C150)^2</f>
         <v>1019.5604949214303</v>
       </c>
-      <c r="D157" s="63" t="s">
-        <v>98</v>
+      <c r="D157" s="60" t="s">
+        <v>97</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="I157" s="17"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B158" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C158" s="68"/>
-      <c r="D158" s="63"/>
+      <c r="B158" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="65"/>
+      <c r="D158" s="60"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="I158" s="17"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B159" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C159" s="68"/>
-      <c r="D159" s="63"/>
+      <c r="B159" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159" s="65"/>
+      <c r="D159" s="60"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="I159" s="17"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B160" s="67"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="63"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="60"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="I160" s="17"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B161" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C161" s="69">
+      <c r="B161" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" s="66">
         <f>RATE(2,30,-C157,1000)</f>
         <v>1.9926462666940946E-2</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -4422,9 +4422,9 @@
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" s="10"/>
-      <c r="C162" s="64"/>
+      <c r="C162" s="61"/>
       <c r="D162" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -4432,49 +4432,49 @@
     </row>
     <row r="163" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B163" s="10"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="63" t="s">
-        <v>104</v>
+      <c r="C163" s="61"/>
+      <c r="D163" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="I163" s="17"/>
     </row>
     <row r="164" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C164" s="64"/>
+      <c r="B164" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C164" s="61"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="I164" s="17"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B165" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C165" s="66">
+      <c r="B165" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165" s="63">
         <f>30/(1+C149)+30/(1+C150)^2+1030/(1+C151)^3</f>
         <v>987.392700521508</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="I165" s="17"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B166" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C166" s="69">
+      <c r="B166" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C166" s="66">
         <f>RATE(3,30,-C165,1000)</f>
         <v>3.4495641362262845E-2</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -4482,9 +4482,9 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" s="10"/>
-      <c r="C167" s="64"/>
+      <c r="C167" s="61"/>
       <c r="D167" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -4492,9 +4492,9 @@
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B168" s="10"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="63" t="s">
-        <v>104</v>
+      <c r="C168" s="61"/>
+      <c r="D168" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -4502,15 +4502,15 @@
     </row>
     <row r="169" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10"/>
-      <c r="C169" s="64"/>
-      <c r="D169" s="63"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="60"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="I169" s="17"/>
     </row>
     <row r="170" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="59" t="s">
-        <v>109</v>
+      <c r="B170" s="56" t="s">
+        <v>108</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -4519,30 +4519,30 @@
       <c r="I170" s="17"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C171" s="66">
+      <c r="B171" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" s="63">
         <f>50/(1+C149)+50/(1+C150)^2+1050/(1+C151)^3</f>
         <v>1044.3593637571651</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="I171" s="17"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B172" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C172" s="69">
+      <c r="B172" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C172" s="66">
         <f>RATE(3,50,-C171,1000)</f>
         <v>3.4191086407447703E-2</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -4550,9 +4550,9 @@
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" s="10"/>
-      <c r="C173" s="64"/>
+      <c r="C173" s="61"/>
       <c r="D173" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -4561,8 +4561,8 @@
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="10"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="63" t="s">
-        <v>104</v>
+      <c r="D174" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -4577,11 +4577,11 @@
       <c r="I175" s="17"/>
     </row>
     <row r="176" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="59" t="s">
+      <c r="B176" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -4591,7 +4591,7 @@
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" s="10"/>
       <c r="C177" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4601,7 +4601,7 @@
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="10"/>
       <c r="C178" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4617,7 +4617,7 @@
       <c r="I179" s="17"/>
     </row>
     <row r="180" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="59" t="s">
+      <c r="B180" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C180" s="5"/>
@@ -4627,29 +4627,29 @@
       <c r="I180" s="17"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B181" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C181" s="70">
+      <c r="B181" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C181" s="67">
         <f>50000/(1+C149)+50000/(1+C150)^2+50000/(1+C151)^3</f>
         <v>142416.65808914276</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="I181" s="17"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B182" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C182" s="69">
+      <c r="B182" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C182" s="66">
         <v>2.64E-2</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -4657,9 +4657,9 @@
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="10"/>
-      <c r="C183" s="71"/>
+      <c r="C183" s="68"/>
       <c r="D183" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -4668,21 +4668,21 @@
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" s="10"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="63" t="s">
-        <v>119</v>
+      <c r="D184" s="60" t="s">
+        <v>118</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="I184" s="17"/>
     </row>
     <row r="185" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="72"/>
-      <c r="C185" s="73"/>
-      <c r="D185" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="E185" s="73"/>
-      <c r="F185" s="73"/>
+      <c r="B185" s="69"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E185" s="70"/>
+      <c r="F185" s="70"/>
       <c r="G185" s="41"/>
       <c r="H185" s="41"/>
       <c r="I185" s="42"/>
@@ -4695,20 +4695,20 @@
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B187" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="C187" s="60"/>
-      <c r="D187" s="60"/>
-      <c r="E187" s="60"/>
-      <c r="F187" s="60"/>
+      <c r="B187" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C187" s="57"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B188" s="75" t="s">
-        <v>60</v>
+      <c r="B188" s="72" t="s">
+        <v>59</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -4717,22 +4717,22 @@
       <c r="I188" s="17"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B189" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C189" s="76">
+      <c r="B189" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C189" s="73">
         <f>1050/1.1</f>
         <v>954.5454545454545</v>
       </c>
-      <c r="D189" s="63" t="s">
-        <v>122</v>
+      <c r="D189" s="60" t="s">
+        <v>121</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="I189" s="17"/>
     </row>
     <row r="190" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="61"/>
+      <c r="B190" s="58"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -4740,47 +4740,47 @@
       <c r="I190" s="17"/>
     </row>
     <row r="191" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="59" t="s">
+      <c r="B191" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="I191" s="17"/>
     </row>
     <row r="192" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="61"/>
+      <c r="B192" s="58"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="I192" s="17"/>
     </row>
     <row r="193" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="59" t="s">
+      <c r="B193" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="I193" s="17"/>
     </row>
     <row r="194" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="61"/>
+      <c r="B194" s="58"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="I194" s="17"/>
     </row>
     <row r="195" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="59" t="s">
+      <c r="B195" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -4789,7 +4789,7 @@
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B196" s="10"/>
       <c r="C196" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -4805,7 +4805,7 @@
     <row r="198" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B198" s="10"/>
       <c r="C198" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -4814,7 +4814,7 @@
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B199" s="10"/>
       <c r="C199" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4823,7 +4823,7 @@
     <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B200" s="10"/>
       <c r="C200" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -4832,7 +4832,7 @@
     <row r="201" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B201" s="10"/>
       <c r="C201" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -4841,7 +4841,7 @@
     <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B202" s="10"/>
       <c r="C202" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -4857,19 +4857,19 @@
     <row r="204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B204" s="10"/>
       <c r="C204" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="I204" s="17"/>
     </row>
     <row r="205" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="72"/>
-      <c r="C205" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D205" s="73"/>
-      <c r="E205" s="73"/>
+      <c r="B205" s="69"/>
+      <c r="C205" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D205" s="70"/>
+      <c r="E205" s="70"/>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
       <c r="H205" s="41"/>
@@ -4877,13 +4877,13 @@
     </row>
     <row r="206" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="207" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B207" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C207" s="60"/>
-      <c r="D207" s="60"/>
-      <c r="E207" s="60"/>
-      <c r="F207" s="60"/>
+      <c r="B207" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C207" s="57"/>
+      <c r="D207" s="57"/>
+      <c r="E207" s="57"/>
+      <c r="F207" s="57"/>
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
       <c r="I207" s="14"/>
@@ -4897,8 +4897,8 @@
       <c r="I208" s="17"/>
     </row>
     <row r="209" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="59" t="s">
-        <v>60</v>
+      <c r="B209" s="56" t="s">
+        <v>59</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -4907,25 +4907,25 @@
       <c r="I209" s="17"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B210" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C210" s="77">
+      <c r="B210" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C210" s="74">
         <f>MDURATION(C211,C212,C214,C213,C217,C218)</f>
         <v>19.600441349469776</v>
       </c>
-      <c r="D210" s="78" t="s">
-        <v>136</v>
+      <c r="D210" s="75" t="s">
+        <v>135</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="I210" s="17"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B211" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" s="79">
+      <c r="B211" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C211" s="76">
         <v>43831</v>
       </c>
       <c r="D211" s="5"/>
@@ -4934,10 +4934,10 @@
       <c r="I211" s="17"/>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C212" s="79">
+      <c r="B212" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C212" s="76">
         <v>54789</v>
       </c>
       <c r="D212" s="5"/>
@@ -4946,10 +4946,10 @@
       <c r="I212" s="17"/>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B213" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C213" s="80">
+      <c r="B213" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" s="77">
         <v>0.03</v>
       </c>
       <c r="D213" s="5"/>
@@ -4958,10 +4958,10 @@
       <c r="I213" s="17"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B214" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C214" s="80">
+      <c r="B214" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C214" s="77">
         <v>0.03</v>
       </c>
       <c r="D214" s="5"/>
@@ -4970,10 +4970,10 @@
       <c r="I214" s="17"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B215" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C215" s="64">
+      <c r="B215" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C215" s="61">
         <v>100</v>
       </c>
       <c r="D215" s="5"/>
@@ -4982,10 +4982,10 @@
       <c r="I215" s="17"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B216" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C216" s="64">
+      <c r="B216" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C216" s="61">
         <v>100</v>
       </c>
       <c r="D216" s="5"/>
@@ -4994,10 +4994,10 @@
       <c r="I216" s="17"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B217" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C217" s="64">
+      <c r="B217" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C217" s="61">
         <v>1</v>
       </c>
       <c r="D217" s="5"/>
@@ -5006,10 +5006,10 @@
       <c r="I217" s="17"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B218" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C218" s="64">
+      <c r="B218" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C218" s="61">
         <v>0</v>
       </c>
       <c r="D218" s="5"/>
@@ -5026,7 +5026,7 @@
       <c r="I219" s="17"/>
     </row>
     <row r="220" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="59" t="s">
+      <c r="B220" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="5"/>
@@ -5036,25 +5036,25 @@
       <c r="I220" s="17"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B221" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C221" s="81">
+      <c r="B221" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C221" s="78">
         <f>PRICE(C222,C223,C225,C224,C227,C228,C229)</f>
         <v>82.707966699335415</v>
       </c>
-      <c r="D221" s="78" t="s">
-        <v>144</v>
+      <c r="D221" s="75" t="s">
+        <v>143</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="I221" s="17"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B222" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C222" s="79">
+      <c r="B222" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" s="76">
         <v>43831</v>
       </c>
       <c r="D222" s="5"/>
@@ -5063,10 +5063,10 @@
       <c r="I222" s="17"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B223" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C223" s="79">
+      <c r="B223" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C223" s="76">
         <v>54789</v>
       </c>
       <c r="D223" s="5"/>
@@ -5075,24 +5075,24 @@
       <c r="I223" s="17"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B224" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C224" s="83">
+      <c r="B224" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C224" s="80">
         <v>0.04</v>
       </c>
-      <c r="D224" s="84" t="s">
-        <v>145</v>
+      <c r="D224" s="81" t="s">
+        <v>144</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="I224" s="17"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B225" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C225" s="80">
+      <c r="B225" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C225" s="77">
         <v>0.03</v>
       </c>
       <c r="D225" s="5"/>
@@ -5101,10 +5101,10 @@
       <c r="I225" s="17"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B226" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C226" s="64">
+      <c r="B226" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" s="61">
         <v>100</v>
       </c>
       <c r="D226" s="5"/>
@@ -5113,10 +5113,10 @@
       <c r="I226" s="17"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B227" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C227" s="64">
+      <c r="B227" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C227" s="61">
         <v>100</v>
       </c>
       <c r="D227" s="5"/>
@@ -5125,10 +5125,10 @@
       <c r="I227" s="17"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B228" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C228" s="64">
+      <c r="B228" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C228" s="61">
         <v>1</v>
       </c>
       <c r="D228" s="5"/>
@@ -5137,10 +5137,10 @@
       <c r="I228" s="17"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B229" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C229" s="64">
+      <c r="B229" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C229" s="61">
         <v>0</v>
       </c>
       <c r="D229" s="5"/>
@@ -5157,12 +5157,12 @@
       <c r="I230" s="17"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B231" s="85">
+      <c r="B231" s="82">
         <f>(C221-C226)/C239</f>
         <v>-0.17292033300664586</v>
       </c>
-      <c r="C231" s="78" t="s">
-        <v>146</v>
+      <c r="C231" s="75" t="s">
+        <v>145</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -5170,15 +5170,15 @@
       <c r="I231" s="17"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="85"/>
-      <c r="C232" s="63"/>
+      <c r="B232" s="82"/>
+      <c r="C232" s="60"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="I232" s="17"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="86" t="s">
+      <c r="B233" s="83" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="5"/>
@@ -5188,25 +5188,25 @@
       <c r="I233" s="17"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B234" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C234" s="81">
+      <c r="B234" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" s="78">
         <f>PRICE(C235,C236,C238,C237,C240,C241,C242)</f>
         <v>122.39645555100441</v>
       </c>
-      <c r="D234" s="78" t="s">
-        <v>144</v>
+      <c r="D234" s="75" t="s">
+        <v>143</v>
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="I234" s="17"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B235" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C235" s="79">
+      <c r="B235" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C235" s="76">
         <v>43831</v>
       </c>
       <c r="D235" s="5"/>
@@ -5215,10 +5215,10 @@
       <c r="I235" s="17"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B236" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C236" s="79">
+      <c r="B236" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C236" s="76">
         <v>54789</v>
       </c>
       <c r="D236" s="5"/>
@@ -5227,24 +5227,24 @@
       <c r="I236" s="17"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B237" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C237" s="88">
+      <c r="B237" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C237" s="85">
         <v>0.02</v>
       </c>
-      <c r="D237" s="84" t="s">
-        <v>147</v>
+      <c r="D237" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="I237" s="17"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B238" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C238" s="80">
+      <c r="B238" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C238" s="77">
         <v>0.03</v>
       </c>
       <c r="D238" s="5"/>
@@ -5253,10 +5253,10 @@
       <c r="I238" s="17"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B239" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C239" s="64">
+      <c r="B239" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C239" s="61">
         <v>100</v>
       </c>
       <c r="D239" s="5"/>
@@ -5265,10 +5265,10 @@
       <c r="I239" s="17"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B240" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C240" s="64">
+      <c r="B240" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C240" s="61">
         <v>100</v>
       </c>
       <c r="D240" s="5"/>
@@ -5277,10 +5277,10 @@
       <c r="I240" s="17"/>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B241" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C241" s="64">
+      <c r="B241" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C241" s="61">
         <v>1</v>
       </c>
       <c r="D241" s="5"/>
@@ -5289,10 +5289,10 @@
       <c r="I241" s="17"/>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B242" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C242" s="64">
+      <c r="B242" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C242" s="61">
         <v>0</v>
       </c>
       <c r="D242" s="5"/>
@@ -5309,12 +5309,12 @@
       <c r="I243" s="17"/>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B244" s="85">
+      <c r="B244" s="82">
         <f>(C234-C239)/C239</f>
         <v>0.22396455551004407</v>
       </c>
-      <c r="C244" s="78" t="s">
-        <v>148</v>
+      <c r="C244" s="75" t="s">
+        <v>147</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -5330,7 +5330,7 @@
       <c r="I245" s="17"/>
     </row>
     <row r="246" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="59" t="s">
+      <c r="B246" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C246" s="5"/>
@@ -5348,12 +5348,12 @@
       <c r="I247" s="17"/>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B248" s="85">
+      <c r="B248" s="82">
         <f>C210*1/C215</f>
         <v>0.19600441349469777</v>
       </c>
-      <c r="C248" s="89" t="s">
-        <v>149</v>
+      <c r="C248" s="86" t="s">
+        <v>148</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -5362,8 +5362,8 @@
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B249" s="10"/>
-      <c r="C249" s="89" t="s">
-        <v>150</v>
+      <c r="C249" s="86" t="s">
+        <v>149</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -5379,11 +5379,11 @@
       <c r="I250" s="17"/>
     </row>
     <row r="251" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="59" t="s">
+      <c r="B251" s="56" t="s">
         <v>16</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -5393,7 +5393,7 @@
     <row r="252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B252" s="10"/>
       <c r="C252" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -5403,7 +5403,7 @@
     <row r="253" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B253" s="10"/>
       <c r="C253" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -5413,7 +5413,7 @@
     <row r="254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B254" s="10"/>
       <c r="C254" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -5423,7 +5423,7 @@
     <row r="255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B255" s="10"/>
       <c r="C255" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -5583,11 +5583,11 @@
       <c r="I274" s="17"/>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B275" s="75" t="s">
+      <c r="B275" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -5597,7 +5597,7 @@
     <row r="276" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B276" s="10"/>
       <c r="C276" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -5605,13 +5605,13 @@
       <c r="I276" s="17"/>
     </row>
     <row r="277" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="72"/>
-      <c r="C277" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D277" s="73"/>
-      <c r="E277" s="73"/>
-      <c r="F277" s="73"/>
+      <c r="B277" s="69"/>
+      <c r="C277" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D277" s="70"/>
+      <c r="E277" s="70"/>
+      <c r="F277" s="70"/>
       <c r="G277" s="41"/>
       <c r="H277" s="41"/>
       <c r="I277" s="42"/>
